--- a/TaiLieu/NhatKy.xlsx
+++ b/TaiLieu/NhatKy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\prjUntil\DOANTOTNGHIEP\TaiLieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\OneDrive\Máy tính\gitenglish\GameEnglish\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Nhat ky" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*(#REF!&gt;0)</definedName>
@@ -36,33 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Nhận xét của 
 GVHD</t>
@@ -94,6 +66,59 @@
   </si>
   <si>
     <t>NHẬT KÝ LÀM VIỆC</t>
+  </si>
+  <si>
+    <t>- Tiếp nhận yêu cầu của giảng viên.
+- Lập kế hoạch chi tiết từng tuần, hoàn tất file kế hoạch theo mẫu.
+- Phân công cụ thể công việc cho từng thành viên.
+- Tìm hiều về WPF.
+- Tìm hiểu các ứng dụng WPF, các ứng dụng học tiếng anh.
+- Giới thiệu tổng quan về đề tài, mục tiêu của đề tài, phạm vi của đề tài.
+- Thu thập yêu cầu, lên ý tưởng, lập danh sách các chức năng, phi chức năng cho ứng dụng.
+- Cập nhật file trình bày đồ án.</t>
+  </si>
+  <si>
+    <t>- Tìm hiều WPF.
+- Phân tích yêu cầu, viết mô tả ứng dụng, vẽ usecase tổng quát.
+- Cập nhật file trình bày đồ án.</t>
+  </si>
+  <si>
+    <t>- Đánh giá, chỉnh sửa Use case
+- Đặc tả Use Case
+- Vẽ Activity Diagram, Sequence Diagram 
+- Vẽ Class Diagram
+- Cập nhật file trình bày đồ án.</t>
+  </si>
+  <si>
+    <t>- Hiện thực giao diện và các chức năng của ứng dụng.</t>
+  </si>
+  <si>
+    <t>- Hiện thực giao diện và các chức năng của ứng dụng.
+- Test và sửa lỗi từng chức năng đã hiện thực.</t>
+  </si>
+  <si>
+    <t>- Hoàn tất file trình bày đồ án.
+- Hoàn tất file powerpoint để báo cáo.</t>
+  </si>
+  <si>
+    <t>- Tìm hiều WPF.
+- Đánh giá, và chỉnh sửa đặc tả, sơ đồ của tuần trước
+- Thiết kế CSDL.
+- Thiết kế giao diện.
+- Cập nhật file trình bày đồ án.</t>
+  </si>
+  <si>
+    <t>TÌM HIỂU CÔNG NGHỆ WPF VÀ VIẾT ỨNG DỤNG HỌC TIẾNG ANH CHO TRẺ EM</t>
+  </si>
+  <si>
+    <t>- Test và sửa lỗi ứng dụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hoàn tất ứng dụng.
+</t>
+  </si>
+  <si>
+    <t>CHÂU THỊ BẢO HÀ</t>
   </si>
 </sst>
 </file>
@@ -103,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -173,22 +198,44 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -211,6 +258,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -221,7 +309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,21 +322,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -258,9 +337,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -272,9 +348,71 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -293,112 +431,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3248025</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line Callout 1 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="190500"/>
-          <a:ext cx="0" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 40288"/>
-            <a:gd name="adj2" fmla="val -965"/>
-            <a:gd name="adj3" fmla="val 117115"/>
-            <a:gd name="adj4" fmla="val -124649"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Nhập ngày bắt đầu thực hiện đồ án (theo lịch của khoa) vào</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> ô này</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Ke hoach thuc hien"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -663,338 +695,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="35"/>
     <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14">
-        <v>43120</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10">
+        <v>44077</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
-        <f>C4</f>
-        <v>43120</v>
-      </c>
-      <c r="C6" s="8">
-        <f>B6+6</f>
-        <v>43126</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="15">
+        <v>43899</v>
+      </c>
+      <c r="C6" s="16">
+        <v>43905</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
-        <f>B6+7</f>
-        <v>43127</v>
-      </c>
-      <c r="C7" s="4">
-        <f>B7+6</f>
-        <v>43133</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="15">
+        <v>43906</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43912</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>3</v>
       </c>
-      <c r="B8" s="4">
-        <f>B7+7</f>
-        <v>43134</v>
-      </c>
-      <c r="C8" s="4">
-        <f>B8+6</f>
-        <v>43140</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="15">
+        <v>43913</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43919</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="31">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
-        <f>B8+7</f>
-        <v>43141</v>
-      </c>
-      <c r="C9" s="4">
-        <f>B9+6</f>
-        <v>43147</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="15">
+        <v>43920</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43926</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="31">
         <v>5</v>
       </c>
-      <c r="B10" s="4">
-        <f>B9+7</f>
-        <v>43148</v>
-      </c>
-      <c r="C10" s="4">
-        <f>B10+6</f>
-        <v>43154</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="15">
+        <v>43927</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43933</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="31">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
-        <f>B10+7</f>
-        <v>43155</v>
-      </c>
-      <c r="C11" s="4">
-        <f>B11+6</f>
-        <v>43161</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="15">
+        <v>43934</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43940</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="31">
         <v>7</v>
       </c>
-      <c r="B12" s="4">
-        <f>B11+7</f>
-        <v>43162</v>
-      </c>
-      <c r="C12" s="4">
-        <f>B12+6</f>
-        <v>43168</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="15">
+        <v>43941</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43947</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="31">
         <v>8</v>
       </c>
-      <c r="B13" s="4">
-        <f>B12+7</f>
-        <v>43169</v>
-      </c>
-      <c r="C13" s="4">
-        <f>B13+6</f>
-        <v>43175</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43954</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="31">
         <v>9</v>
       </c>
-      <c r="B14" s="4">
-        <f>B13+7</f>
-        <v>43176</v>
-      </c>
-      <c r="C14" s="4">
-        <f>B14+6</f>
-        <v>43182</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="15">
+        <v>43955</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43961</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="31">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
-        <f>B14+7</f>
-        <v>43183</v>
-      </c>
-      <c r="C15" s="4">
-        <f>B15+6</f>
-        <v>43189</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="15">
+        <v>43962</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43968</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="31">
         <v>11</v>
       </c>
-      <c r="B16" s="4">
-        <f>B15+7</f>
-        <v>43190</v>
-      </c>
-      <c r="C16" s="4">
-        <f>B16+6</f>
-        <v>43196</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="15">
+        <v>43969</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43975</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="31">
         <v>12</v>
       </c>
-      <c r="B17" s="4">
-        <f>B16+7</f>
-        <v>43197</v>
-      </c>
-      <c r="C17" s="4">
-        <f>B17+6</f>
-        <v>43203</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="15">
+        <v>43976</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43982</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="31">
         <v>13</v>
       </c>
-      <c r="B18" s="4">
-        <f>B17+7</f>
-        <v>43204</v>
-      </c>
-      <c r="C18" s="4">
-        <f>B18+6</f>
-        <v>43210</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="15">
+        <v>43983</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43989</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="32">
         <v>14</v>
       </c>
-      <c r="B19" s="4">
-        <f>B18+7</f>
-        <v>43211</v>
-      </c>
-      <c r="C19" s="4">
-        <f>B19+6</f>
-        <v>43217</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="21">
+        <v>43990</v>
+      </c>
+      <c r="C19" s="21">
+        <v>43996</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="33">
         <v>15</v>
       </c>
-      <c r="B20" s="4">
-        <f>B19+7</f>
-        <v>43218</v>
-      </c>
-      <c r="C20" s="4">
-        <f>B20+6</f>
-        <v>43224</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="24">
+        <v>43997</v>
+      </c>
+      <c r="C20" s="24">
+        <v>44003</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>16</v>
+      </c>
+      <c r="B21" s="24">
+        <v>44004</v>
+      </c>
+      <c r="C21" s="24">
+        <v>44010</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>17</v>
+      </c>
+      <c r="B22" s="24">
+        <v>44011</v>
+      </c>
+      <c r="C22" s="24">
+        <v>44017</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>18</v>
+      </c>
+      <c r="B23" s="24">
+        <v>44018</v>
+      </c>
+      <c r="C23" s="24">
+        <v>44023</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TaiLieu/NhatKy.xlsx
+++ b/TaiLieu/NhatKy.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Nhận xét của 
 GVHD</t>
@@ -83,13 +83,6 @@
 - Cập nhật file trình bày đồ án.</t>
   </si>
   <si>
-    <t>- Đánh giá, chỉnh sửa Use case
-- Đặc tả Use Case
-- Vẽ Activity Diagram, Sequence Diagram 
-- Vẽ Class Diagram
-- Cập nhật file trình bày đồ án.</t>
-  </si>
-  <si>
     <t>- Hiện thực giao diện và các chức năng của ứng dụng.</t>
   </si>
   <si>
@@ -111,14 +104,57 @@
     <t>TÌM HIỂU CÔNG NGHỆ WPF VÀ VIẾT ỨNG DỤNG HỌC TIẾNG ANH CHO TRẺ EM</t>
   </si>
   <si>
-    <t>- Test và sửa lỗi ứng dụng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Hoàn tất ứng dụng.
-</t>
-  </si>
-  <si>
     <t>CHÂU THỊ BẢO HÀ</t>
+  </si>
+  <si>
+    <t>- Đánh giá, chỉnh sửa Use case
+- Đặc tả Use Case
+- Vẽ Activity Diagram, Sequence Diagram
+- Cập nhật file trình bày đồ án.</t>
+  </si>
+  <si>
+    <t>- Các chức năng cơ bản đã hoàn thiện tuy nhiên vẫn còn nhiều lỗi.
+- Chưa có cơ sở dữ liệu, dữ liệu hình ảnh và âm thanh được gán cứng cho từng activity và từng unit, khó thay đổi theo khi giáo trình bigfun có sự cập nhật</t>
+  </si>
+  <si>
+    <t>- Hiện thực giao diện và các chức năng của ứng dụng còn thiếu.
+- Test và sửa lỗi từng chức năng đã hiện thực.</t>
+  </si>
+  <si>
+    <t>- Test và sửa lỗi từng chức năng đã hiện thực.
+- Thiết kế thêm cơ sở dữ liệu.
+- Vẽ lại ActivityDiagram và Sequence Diagram.
+- Chỉnh sửa các chức năng của ứng dụng, lấy dữ liệu từ DB.</t>
+  </si>
+  <si>
+    <t>- Chỉnh sửa các chức năng của ứng dụng, lấy dữ liệu từ DB.
+- Hiện thực giao diện và các chức năng của ứng dụng còn thiếu.
+- Test và sửa lỗi từng chức năng đã hiện thực.</t>
+  </si>
+  <si>
+    <t>14/05/20</t>
+  </si>
+  <si>
+    <t>30/06/20</t>
+  </si>
+  <si>
+    <t>- Sửa lỗi.
+- Chỉnh sửa file tài liệu.</t>
+  </si>
+  <si>
+    <t>- Ứng dụng còn lỗi.
+- Dữ liệu âm thanh và hình ảnh trong DB không đồng bộ.
+- File tài liệu nhiều mục còn thiếu, sai.
+- Bảng Unit trong DB thiết kế sai, còn sót một vài đoạn code vẫn dùng dữ được gán cứng trong code.</t>
+  </si>
+  <si>
+    <t>- Thiết kế lại bảng Unit, cập nhật dữ liệu âm thanh và hình ảnh trong DB cho đồng bộ.
+- Sửa các đoạn code gán cứng dữ liệu chuyển sang lấy dữ liệu từ DB
+- Chỉnh sửa và hoàn tất file trình bày đồ án.
+- Hoàn tất file powerpoint để báo cáo.</t>
+  </si>
+  <si>
+    <t>- Tài liệu còn nhiều sai sót và thiếu nhiều nội dung.</t>
   </si>
 </sst>
 </file>
@@ -128,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -164,12 +200,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="7"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="7"/>
@@ -198,24 +228,45 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -235,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -299,17 +350,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,99 +385,114 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,379 +780,391 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="35"/>
+    <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="93.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <v>44077</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43899</v>
+      </c>
+      <c r="C6" s="19">
+        <v>43905</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18">
+        <v>43906</v>
+      </c>
+      <c r="C7" s="18">
+        <v>43912</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18">
+        <v>43913</v>
+      </c>
+      <c r="C8" s="18">
+        <v>43919</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>4</v>
+      </c>
+      <c r="B9" s="18">
+        <v>43920</v>
+      </c>
+      <c r="C9" s="18">
+        <v>43926</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>5</v>
+      </c>
+      <c r="B10" s="18">
+        <v>43927</v>
+      </c>
+      <c r="C10" s="18">
+        <v>43933</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>6</v>
+      </c>
+      <c r="B11" s="18">
+        <v>43934</v>
+      </c>
+      <c r="C11" s="18">
+        <v>43940</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>7</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="19" t="s">
+      <c r="B12" s="18">
+        <v>43941</v>
+      </c>
+      <c r="C12" s="18">
+        <v>43947</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>8</v>
+      </c>
+      <c r="B13" s="18">
+        <v>43948</v>
+      </c>
+      <c r="C13" s="18">
+        <v>43954</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>9</v>
+      </c>
+      <c r="B14" s="18">
+        <v>43955</v>
+      </c>
+      <c r="C14" s="18">
+        <v>43961</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>10</v>
+      </c>
+      <c r="B15" s="18">
+        <v>43962</v>
+      </c>
+      <c r="C15" s="18">
+        <v>43968</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>11</v>
+      </c>
+      <c r="B16" s="18">
+        <v>43969</v>
+      </c>
+      <c r="C16" s="18">
+        <v>43975</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="18">
+        <v>43976</v>
+      </c>
+      <c r="C17" s="18">
+        <v>43982</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>13</v>
+      </c>
+      <c r="B18" s="18">
+        <v>43983</v>
+      </c>
+      <c r="C18" s="18">
+        <v>43989</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10">
-        <v>44077</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15">
-        <v>43899</v>
-      </c>
-      <c r="C6" s="16">
-        <v>43905</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>2</v>
-      </c>
-      <c r="B7" s="15">
-        <v>43906</v>
-      </c>
-      <c r="C7" s="15">
-        <v>43912</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15">
-        <v>43913</v>
-      </c>
-      <c r="C8" s="15">
-        <v>43919</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>4</v>
-      </c>
-      <c r="B9" s="15">
-        <v>43920</v>
-      </c>
-      <c r="C9" s="15">
-        <v>43926</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>5</v>
-      </c>
-      <c r="B10" s="15">
-        <v>43927</v>
-      </c>
-      <c r="C10" s="15">
-        <v>43933</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15">
-        <v>43934</v>
-      </c>
-      <c r="C11" s="15">
-        <v>43940</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="17" t="s">
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
         <v>14</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>7</v>
-      </c>
-      <c r="B12" s="15">
-        <v>43941</v>
-      </c>
-      <c r="C12" s="15">
-        <v>43947</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>8</v>
-      </c>
-      <c r="B13" s="15">
-        <v>43948</v>
-      </c>
-      <c r="C13" s="15">
-        <v>43954</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>9</v>
-      </c>
-      <c r="B14" s="15">
-        <v>43955</v>
-      </c>
-      <c r="C14" s="15">
-        <v>43961</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>10</v>
-      </c>
-      <c r="B15" s="15">
-        <v>43962</v>
-      </c>
-      <c r="C15" s="15">
-        <v>43968</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>11</v>
-      </c>
-      <c r="B16" s="15">
-        <v>43969</v>
-      </c>
-      <c r="C16" s="15">
-        <v>43975</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>12</v>
-      </c>
-      <c r="B17" s="15">
-        <v>43976</v>
-      </c>
-      <c r="C17" s="15">
-        <v>43982</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>13</v>
-      </c>
-      <c r="B18" s="15">
-        <v>43983</v>
-      </c>
-      <c r="C18" s="15">
-        <v>43989</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
-        <v>14</v>
-      </c>
-      <c r="B19" s="21">
+      <c r="B19" s="29">
         <v>43990</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="29">
         <v>43996</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="23"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>15</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="34">
         <v>43997</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="34">
         <v>44003</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
+        <v>16</v>
+      </c>
+      <c r="B21" s="34">
+        <v>44004</v>
+      </c>
+      <c r="C21" s="34">
+        <v>44010</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
+        <v>17</v>
+      </c>
+      <c r="B22" s="34">
+        <v>44011</v>
+      </c>
+      <c r="C22" s="34">
+        <v>44017</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
         <v>18</v>
       </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
-        <v>16</v>
-      </c>
-      <c r="B21" s="24">
-        <v>44004</v>
-      </c>
-      <c r="C21" s="24">
-        <v>44010</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
-        <v>17</v>
-      </c>
-      <c r="B22" s="24">
-        <v>44011</v>
-      </c>
-      <c r="C22" s="24">
-        <v>44017</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
-        <v>18</v>
-      </c>
-      <c r="B23" s="24">
+      <c r="B23" s="34">
         <v>44018</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="34">
         <v>44023</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="25"/>
+      <c r="D23" s="39">
+        <v>44050</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
